--- a/data/pca/factorExposure/factorExposure_2015-01-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.009133431503230717</v>
+        <v>0.008626974698470772</v>
       </c>
       <c r="C2">
-        <v>-0.0373088720816162</v>
+        <v>-0.05209703548682158</v>
       </c>
       <c r="D2">
-        <v>0.1177024501575225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02095096943698159</v>
+      </c>
+      <c r="E2">
+        <v>0.1178054511801019</v>
+      </c>
+      <c r="F2">
+        <v>0.1327736002001798</v>
+      </c>
+      <c r="G2">
+        <v>-0.07024489600203139</v>
+      </c>
+      <c r="H2">
+        <v>-0.04016161528951726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03454779059189383</v>
+        <v>0.01817003418926258</v>
       </c>
       <c r="C4">
-        <v>-0.1075684699070845</v>
+        <v>-0.1321620128808696</v>
       </c>
       <c r="D4">
-        <v>0.06747618509372745</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.004153888058299108</v>
+      </c>
+      <c r="E4">
+        <v>0.08839334443360623</v>
+      </c>
+      <c r="F4">
+        <v>0.1163261706592032</v>
+      </c>
+      <c r="G4">
+        <v>0.06409275086781145</v>
+      </c>
+      <c r="H4">
+        <v>-0.02826852551671103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02432523788774183</v>
+        <v>0.03302356902039883</v>
       </c>
       <c r="C6">
-        <v>-0.03394860042554914</v>
+        <v>-0.04769103537248774</v>
       </c>
       <c r="D6">
-        <v>0.06987929266883795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.00107412315160811</v>
+      </c>
+      <c r="E6">
+        <v>0.110335451418414</v>
+      </c>
+      <c r="F6">
+        <v>0.07221815360737287</v>
+      </c>
+      <c r="G6">
+        <v>-0.004998062127001932</v>
+      </c>
+      <c r="H6">
+        <v>0.04614827283361016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.008836882391694945</v>
+        <v>0.005586830482037909</v>
       </c>
       <c r="C7">
-        <v>-0.03551029625021396</v>
+        <v>-0.05125365812048931</v>
       </c>
       <c r="D7">
-        <v>0.06273639713915009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.006344938129448048</v>
+      </c>
+      <c r="E7">
+        <v>0.09320303246647019</v>
+      </c>
+      <c r="F7">
+        <v>0.02015799334453481</v>
+      </c>
+      <c r="G7">
+        <v>0.0178658895026281</v>
+      </c>
+      <c r="H7">
+        <v>0.01072959795349664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-7.976310104151253e-05</v>
+        <v>-0.004640714282275738</v>
       </c>
       <c r="C8">
-        <v>-0.04127152033194493</v>
+        <v>-0.05071865673200156</v>
       </c>
       <c r="D8">
-        <v>0.06041825134753093</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.01558411959728271</v>
+      </c>
+      <c r="E8">
+        <v>0.06427560065486956</v>
+      </c>
+      <c r="F8">
+        <v>0.0755514435843516</v>
+      </c>
+      <c r="G8">
+        <v>0.01121316416568646</v>
+      </c>
+      <c r="H8">
+        <v>-0.06625504728996974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02009619231651045</v>
+        <v>0.01095024217421799</v>
       </c>
       <c r="C9">
-        <v>-0.09106510218403706</v>
+        <v>-0.1068648591513161</v>
       </c>
       <c r="D9">
-        <v>0.06793679002781083</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.005032139997226306</v>
+      </c>
+      <c r="E9">
+        <v>0.07614378364599847</v>
+      </c>
+      <c r="F9">
+        <v>0.0819477688400133</v>
+      </c>
+      <c r="G9">
+        <v>0.02420425287378134</v>
+      </c>
+      <c r="H9">
+        <v>0.01012553704199306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.2250142605188507</v>
+        <v>0.2436598350951995</v>
       </c>
       <c r="C10">
-        <v>0.1078141142029236</v>
+        <v>0.08299427154395755</v>
       </c>
       <c r="D10">
-        <v>-0.04129789997467456</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.003772919613391953</v>
+      </c>
+      <c r="E10">
+        <v>-0.02694621355942314</v>
+      </c>
+      <c r="F10">
+        <v>0.01831746106195642</v>
+      </c>
+      <c r="G10">
+        <v>0.01368158161963335</v>
+      </c>
+      <c r="H10">
+        <v>0.01340814996390907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.005616346245018021</v>
+        <v>0.01002879385683395</v>
       </c>
       <c r="C11">
-        <v>-0.0439446164347626</v>
+        <v>-0.06447915513682821</v>
       </c>
       <c r="D11">
-        <v>0.04427834128164311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.004052363121965691</v>
+      </c>
+      <c r="E11">
+        <v>0.05969960992085043</v>
+      </c>
+      <c r="F11">
+        <v>0.01129157924304769</v>
+      </c>
+      <c r="G11">
+        <v>0.01398087332460084</v>
+      </c>
+      <c r="H11">
+        <v>0.01112597849266796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.005773476600953616</v>
+        <v>0.01032109387098227</v>
       </c>
       <c r="C12">
-        <v>-0.04539866454360428</v>
+        <v>-0.05384905552381774</v>
       </c>
       <c r="D12">
-        <v>0.04516178150618513</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.001981851028202587</v>
+      </c>
+      <c r="E12">
+        <v>0.05171697822181269</v>
+      </c>
+      <c r="F12">
+        <v>0.009986979537542851</v>
+      </c>
+      <c r="G12">
+        <v>-0.01530995901178074</v>
+      </c>
+      <c r="H12">
+        <v>0.02654393352398122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0178739936992822</v>
+        <v>0.005668777795437829</v>
       </c>
       <c r="C13">
-        <v>-0.05714645956074547</v>
+        <v>-0.08566528937373306</v>
       </c>
       <c r="D13">
-        <v>0.1132504683270766</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03571805013788946</v>
+      </c>
+      <c r="E13">
+        <v>0.1276020618973887</v>
+      </c>
+      <c r="F13">
+        <v>0.06316185547839219</v>
+      </c>
+      <c r="G13">
+        <v>-0.09500958005800099</v>
+      </c>
+      <c r="H13">
+        <v>0.03173723778329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01102465392178011</v>
+        <v>0.002426940843521145</v>
       </c>
       <c r="C14">
-        <v>-0.02173676881205056</v>
+        <v>-0.0449961323445357</v>
       </c>
       <c r="D14">
-        <v>0.05375322501850932</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01744648076739687</v>
+      </c>
+      <c r="E14">
+        <v>0.1067469015143673</v>
+      </c>
+      <c r="F14">
+        <v>0.04878002884266849</v>
+      </c>
+      <c r="G14">
+        <v>-0.0359070175069728</v>
+      </c>
+      <c r="H14">
+        <v>0.0383467950904493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002857906284046978</v>
+        <v>-0.004909135970517212</v>
       </c>
       <c r="C15">
-        <v>-0.01926927789462912</v>
+        <v>-0.0410003203546935</v>
       </c>
       <c r="D15">
-        <v>0.05864190458525301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.008571635358298167</v>
+      </c>
+      <c r="E15">
+        <v>0.07523778581991554</v>
+      </c>
+      <c r="F15">
+        <v>0.02758224198175726</v>
+      </c>
+      <c r="G15">
+        <v>-0.001260170905042837</v>
+      </c>
+      <c r="H15">
+        <v>-0.01042198117985516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.006916330838286522</v>
+        <v>0.009592042633682329</v>
       </c>
       <c r="C16">
-        <v>-0.04119549078970133</v>
+        <v>-0.05555457559409109</v>
       </c>
       <c r="D16">
-        <v>0.03962884007395487</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002619188467759375</v>
+      </c>
+      <c r="E16">
+        <v>0.0522655538955635</v>
+      </c>
+      <c r="F16">
+        <v>0.006026721925317192</v>
+      </c>
+      <c r="G16">
+        <v>0.01002666054907829</v>
+      </c>
+      <c r="H16">
+        <v>0.02839457103334737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.002370494029837041</v>
+        <v>0.0004612766269341741</v>
       </c>
       <c r="C19">
-        <v>-0.02168578407709071</v>
+        <v>-0.01577842852237532</v>
       </c>
       <c r="D19">
-        <v>0.03261598338623041</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.008456378865007368</v>
+      </c>
+      <c r="E19">
+        <v>0.007266826550183927</v>
+      </c>
+      <c r="F19">
+        <v>-0.002134081176598061</v>
+      </c>
+      <c r="G19">
+        <v>-0.02404674718488553</v>
+      </c>
+      <c r="H19">
+        <v>-0.0208912075608185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002621614722983513</v>
+        <v>0.003252017965177635</v>
       </c>
       <c r="C20">
-        <v>-0.03913891330533845</v>
+        <v>-0.06000667771569061</v>
       </c>
       <c r="D20">
-        <v>0.05156966815610612</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.00445399000394785</v>
+      </c>
+      <c r="E20">
+        <v>0.07731399235012019</v>
+      </c>
+      <c r="F20">
+        <v>0.02458689102823663</v>
+      </c>
+      <c r="G20">
+        <v>0.02101166241615587</v>
+      </c>
+      <c r="H20">
+        <v>0.02211834325949047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.005265006845126332</v>
+        <v>0.003704849567916575</v>
       </c>
       <c r="C21">
-        <v>-0.05939239284086267</v>
+        <v>-0.07082489562074505</v>
       </c>
       <c r="D21">
-        <v>0.07311036462744903</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.005329717139037129</v>
+      </c>
+      <c r="E21">
+        <v>0.08207284183787127</v>
+      </c>
+      <c r="F21">
+        <v>0.09145389320683404</v>
+      </c>
+      <c r="G21">
+        <v>-0.1101996218860214</v>
+      </c>
+      <c r="H21">
+        <v>0.01928632823154976</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.003768521078767381</v>
+        <v>-0.01016400764736584</v>
       </c>
       <c r="C22">
-        <v>-0.07281750903529607</v>
+        <v>-0.1013730361249278</v>
       </c>
       <c r="D22">
-        <v>0.1851696576651944</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.08352603991379064</v>
+      </c>
+      <c r="E22">
+        <v>0.2121510767760509</v>
+      </c>
+      <c r="F22">
+        <v>0.2164243444038182</v>
+      </c>
+      <c r="G22">
+        <v>0.07202342218117912</v>
+      </c>
+      <c r="H22">
+        <v>-0.2652484829996702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004012200039734305</v>
+        <v>-0.007113603837445417</v>
       </c>
       <c r="C23">
-        <v>-0.07394296791631591</v>
+        <v>-0.1041089408593019</v>
       </c>
       <c r="D23">
-        <v>0.184323207456511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.08647502862064919</v>
+      </c>
+      <c r="E23">
+        <v>0.2107759493370803</v>
+      </c>
+      <c r="F23">
+        <v>0.215308068595815</v>
+      </c>
+      <c r="G23">
+        <v>0.06767684571477578</v>
+      </c>
+      <c r="H23">
+        <v>-0.2553496467620079</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.007141466723011683</v>
+        <v>0.0102592521573333</v>
       </c>
       <c r="C24">
-        <v>-0.06368721803862615</v>
+        <v>-0.07238530270245989</v>
       </c>
       <c r="D24">
-        <v>0.05252605244319912</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.01287140929502305</v>
+      </c>
+      <c r="E24">
+        <v>0.06113944514264261</v>
+      </c>
+      <c r="F24">
+        <v>0.009364102908204558</v>
+      </c>
+      <c r="G24">
+        <v>0.0008894019834137085</v>
+      </c>
+      <c r="H24">
+        <v>0.01470899708405264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.008757457184669906</v>
+        <v>0.01415024787977725</v>
       </c>
       <c r="C25">
-        <v>-0.05549363926446232</v>
+        <v>-0.06627463077444899</v>
       </c>
       <c r="D25">
-        <v>0.03904201991167534</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0004439377532734846</v>
+      </c>
+      <c r="E25">
+        <v>0.04578344925594892</v>
+      </c>
+      <c r="F25">
+        <v>0.01170139397378077</v>
+      </c>
+      <c r="G25">
+        <v>0.01029208304714511</v>
+      </c>
+      <c r="H25">
+        <v>0.01634132383206018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.00753136845424421</v>
+        <v>0.01694056208852188</v>
       </c>
       <c r="C26">
-        <v>-0.02982341073300335</v>
+        <v>-0.0470817597676353</v>
       </c>
       <c r="D26">
-        <v>0.04727959688315576</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02695375645407564</v>
+      </c>
+      <c r="E26">
+        <v>0.06883250247813961</v>
+      </c>
+      <c r="F26">
+        <v>0.05015219949209191</v>
+      </c>
+      <c r="G26">
+        <v>-0.0150907431845358</v>
+      </c>
+      <c r="H26">
+        <v>-0.007548569919267938</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.3060197176650342</v>
+        <v>0.3148013186036515</v>
       </c>
       <c r="C28">
-        <v>0.1116830255240244</v>
+        <v>0.09203118963835823</v>
       </c>
       <c r="D28">
-        <v>-0.03097641122078488</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01624890831593389</v>
+      </c>
+      <c r="E28">
+        <v>-0.05453371107763772</v>
+      </c>
+      <c r="F28">
+        <v>0.05633346399723801</v>
+      </c>
+      <c r="G28">
+        <v>0.004975178011190548</v>
+      </c>
+      <c r="H28">
+        <v>-0.0815947446523736</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-8.193789892097595e-06</v>
+        <v>0.003153584935050665</v>
       </c>
       <c r="C29">
-        <v>-0.02768656501745878</v>
+        <v>-0.05250142239425654</v>
       </c>
       <c r="D29">
-        <v>0.05956122013872497</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01297390807511913</v>
+      </c>
+      <c r="E29">
+        <v>0.1187717367970826</v>
+      </c>
+      <c r="F29">
+        <v>0.05403821215787054</v>
+      </c>
+      <c r="G29">
+        <v>-0.03877428466387822</v>
+      </c>
+      <c r="H29">
+        <v>0.06349240644184308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.0167463488586718</v>
+        <v>0.01687725263780047</v>
       </c>
       <c r="C30">
-        <v>-0.09500148513252731</v>
+        <v>-0.1170757596465942</v>
       </c>
       <c r="D30">
-        <v>0.1321457414771219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0003268115794534761</v>
+      </c>
+      <c r="E30">
+        <v>0.1466623435586087</v>
+      </c>
+      <c r="F30">
+        <v>0.04940565418559532</v>
+      </c>
+      <c r="G30">
+        <v>0.02456605756520022</v>
+      </c>
+      <c r="H30">
+        <v>0.003096125967535606</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.01298155597356445</v>
+        <v>0.009192712500696695</v>
       </c>
       <c r="C31">
-        <v>-0.09854184076495248</v>
+        <v>-0.1027180057764353</v>
       </c>
       <c r="D31">
-        <v>0.03389939647255013</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.009374082068800423</v>
+      </c>
+      <c r="E31">
+        <v>0.02159774139273133</v>
+      </c>
+      <c r="F31">
+        <v>0.002941334208448691</v>
+      </c>
+      <c r="G31">
+        <v>-0.01136363410101632</v>
+      </c>
+      <c r="H31">
+        <v>-0.0265389110976325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01276011676021739</v>
+        <v>0.01355457008441422</v>
       </c>
       <c r="C32">
-        <v>-0.05453891513848167</v>
+        <v>-0.06375972648190799</v>
       </c>
       <c r="D32">
-        <v>0.07770293163482656</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04418837280307435</v>
+      </c>
+      <c r="E32">
+        <v>0.05281605041907456</v>
+      </c>
+      <c r="F32">
+        <v>0.08462286040207988</v>
+      </c>
+      <c r="G32">
+        <v>-0.0320774146863014</v>
+      </c>
+      <c r="H32">
+        <v>-0.001352725452042819</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0003566136685731598</v>
+        <v>0.007294080493608914</v>
       </c>
       <c r="C33">
-        <v>-0.05648612080041075</v>
+        <v>-0.08029417168584398</v>
       </c>
       <c r="D33">
-        <v>0.07299772908437085</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01024095044986915</v>
+      </c>
+      <c r="E33">
+        <v>0.09435788664764846</v>
+      </c>
+      <c r="F33">
+        <v>0.04423137485876856</v>
+      </c>
+      <c r="G33">
+        <v>-0.004576266842630653</v>
+      </c>
+      <c r="H33">
+        <v>0.00947891604445072</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.004722442098508805</v>
+        <v>0.01008247837684684</v>
       </c>
       <c r="C34">
-        <v>-0.06276015093064798</v>
+        <v>-0.06396238651637549</v>
       </c>
       <c r="D34">
-        <v>0.06284296263133332</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.007519625938465972</v>
+      </c>
+      <c r="E34">
+        <v>0.05235957323931958</v>
+      </c>
+      <c r="F34">
+        <v>-0.01845866610879323</v>
+      </c>
+      <c r="G34">
+        <v>-0.01687643945103905</v>
+      </c>
+      <c r="H34">
+        <v>0.007718046793583093</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.001033411144505228</v>
+        <v>0.004383789834155874</v>
       </c>
       <c r="C35">
-        <v>-0.001227723703911662</v>
+        <v>-0.0216610132224673</v>
       </c>
       <c r="D35">
-        <v>0.005251898151573058</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.003587939624900379</v>
+      </c>
+      <c r="E35">
+        <v>0.03739325319589702</v>
+      </c>
+      <c r="F35">
+        <v>0.02929086287621459</v>
+      </c>
+      <c r="G35">
+        <v>-0.002304063364518998</v>
+      </c>
+      <c r="H35">
+        <v>0.02992721141285599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.005385558733061788</v>
+        <v>0.01044259794317695</v>
       </c>
       <c r="C36">
-        <v>-0.02811923807346579</v>
+        <v>-0.03894458010844914</v>
       </c>
       <c r="D36">
-        <v>0.03743016365446701</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01365740828530067</v>
+      </c>
+      <c r="E36">
+        <v>0.06092839148556282</v>
+      </c>
+      <c r="F36">
+        <v>0.0489242094920493</v>
+      </c>
+      <c r="G36">
+        <v>-0.005176772490247747</v>
+      </c>
+      <c r="H36">
+        <v>0.001030402446917219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.004862087467607657</v>
+        <v>0.007043088474988871</v>
       </c>
       <c r="C38">
-        <v>-0.01935534657482887</v>
+        <v>-0.04054280980219577</v>
       </c>
       <c r="D38">
-        <v>0.06465171380681654</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01171465167503162</v>
+      </c>
+      <c r="E38">
+        <v>0.07630373884433685</v>
+      </c>
+      <c r="F38">
+        <v>0.01699075542488999</v>
+      </c>
+      <c r="G38">
+        <v>0.01817761201536225</v>
+      </c>
+      <c r="H38">
+        <v>-0.05188584946041482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.006770980508884646</v>
+        <v>0.007432207939063189</v>
       </c>
       <c r="C39">
-        <v>-0.07137890615249647</v>
+        <v>-0.09917533408168515</v>
       </c>
       <c r="D39">
-        <v>0.09563464981722691</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01950304187096292</v>
+      </c>
+      <c r="E39">
+        <v>0.1150138713978504</v>
+      </c>
+      <c r="F39">
+        <v>0.01247011685830943</v>
+      </c>
+      <c r="G39">
+        <v>-0.006961548504578169</v>
+      </c>
+      <c r="H39">
+        <v>0.03664254111646478</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.005539166910573781</v>
+        <v>0.009525563139910929</v>
       </c>
       <c r="C40">
-        <v>-0.03268651652113282</v>
+        <v>-0.04747451712628625</v>
       </c>
       <c r="D40">
-        <v>0.1080964858469374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.004804813422542267</v>
+      </c>
+      <c r="E40">
+        <v>0.1251983539536955</v>
+      </c>
+      <c r="F40">
+        <v>0.007038629123979338</v>
+      </c>
+      <c r="G40">
+        <v>-0.04026834427966985</v>
+      </c>
+      <c r="H40">
+        <v>-0.0006776852196770293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.009180850725043212</v>
+        <v>0.01726010215327135</v>
       </c>
       <c r="C41">
-        <v>-0.02125654495750835</v>
+        <v>-0.03823463581686791</v>
       </c>
       <c r="D41">
-        <v>0.01623480537716709</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.00320527746136865</v>
+      </c>
+      <c r="E41">
+        <v>0.02242348833425432</v>
+      </c>
+      <c r="F41">
+        <v>0.002055431515088361</v>
+      </c>
+      <c r="G41">
+        <v>0.0008686277033378176</v>
+      </c>
+      <c r="H41">
+        <v>-0.006927661524481119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.00303323157078671</v>
+        <v>0.008395016209974031</v>
       </c>
       <c r="C43">
-        <v>-0.01757988899054698</v>
+        <v>-0.03189330331575636</v>
       </c>
       <c r="D43">
-        <v>0.03398762516081178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.00211624901643626</v>
+      </c>
+      <c r="E43">
+        <v>0.04054380795239426</v>
+      </c>
+      <c r="F43">
+        <v>0.00641536293610277</v>
+      </c>
+      <c r="G43">
+        <v>0.007488341549325559</v>
+      </c>
+      <c r="H43">
+        <v>-0.007719125117275519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01374623212338244</v>
+        <v>0.007760355944030076</v>
       </c>
       <c r="C44">
-        <v>-0.05086711379864807</v>
+        <v>-0.06961855378170077</v>
       </c>
       <c r="D44">
-        <v>0.07756103263732678</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.006313701289962777</v>
+      </c>
+      <c r="E44">
+        <v>0.1097471280878933</v>
+      </c>
+      <c r="F44">
+        <v>0.05697201737325501</v>
+      </c>
+      <c r="G44">
+        <v>0.004193231470525</v>
+      </c>
+      <c r="H44">
+        <v>-0.01747088167994669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005470716173822263</v>
+        <v>-0.002250896134728328</v>
       </c>
       <c r="C46">
-        <v>-0.03774653748027434</v>
+        <v>-0.04880886534808515</v>
       </c>
       <c r="D46">
-        <v>0.06126394033623504</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01560281138536068</v>
+      </c>
+      <c r="E46">
+        <v>0.08349076235653551</v>
+      </c>
+      <c r="F46">
+        <v>0.04524158400536439</v>
+      </c>
+      <c r="G46">
+        <v>-0.01554334688540738</v>
+      </c>
+      <c r="H46">
+        <v>0.01825214601320562</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03924257166761204</v>
+        <v>0.02641381978455352</v>
       </c>
       <c r="C47">
-        <v>-0.1282610742714915</v>
+        <v>-0.1224924124698627</v>
       </c>
       <c r="D47">
-        <v>0.04172748880487909</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.003563850338003423</v>
+      </c>
+      <c r="E47">
+        <v>0.00191387194862586</v>
+      </c>
+      <c r="F47">
+        <v>-0.00918582492575035</v>
+      </c>
+      <c r="G47">
+        <v>0.007755323089732661</v>
+      </c>
+      <c r="H47">
+        <v>-0.02183396947324688</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.003345529336599163</v>
+        <v>0.01199297820953498</v>
       </c>
       <c r="C48">
-        <v>-0.03337371640970475</v>
+        <v>-0.04589128116957544</v>
       </c>
       <c r="D48">
-        <v>0.04007850134665156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01804886791507196</v>
+      </c>
+      <c r="E48">
+        <v>0.06304360412194512</v>
+      </c>
+      <c r="F48">
+        <v>0.059576470800493</v>
+      </c>
+      <c r="G48">
+        <v>-0.003705375630211717</v>
+      </c>
+      <c r="H48">
+        <v>-0.004036320024732821</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002535420751001876</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.005993885051872</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.001313923754675728</v>
+      </c>
+      <c r="E49">
+        <v>0.002765982486392835</v>
+      </c>
+      <c r="F49">
+        <v>-0.01207119013525347</v>
+      </c>
+      <c r="G49">
+        <v>-0.001293921938283965</v>
+      </c>
+      <c r="H49">
+        <v>0.01677762505165877</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.01786041640060789</v>
+        <v>0.01219802209727724</v>
       </c>
       <c r="C50">
-        <v>-0.06681199907859767</v>
+        <v>-0.07958651225675037</v>
       </c>
       <c r="D50">
-        <v>0.04648841537371361</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.003654850213008921</v>
+      </c>
+      <c r="E50">
+        <v>0.03603506490510151</v>
+      </c>
+      <c r="F50">
+        <v>0.006743016631348143</v>
+      </c>
+      <c r="G50">
+        <v>0.005746905825047452</v>
+      </c>
+      <c r="H50">
+        <v>-0.03141898631294868</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.004209484389514176</v>
+        <v>-0.004971456349760467</v>
       </c>
       <c r="C51">
-        <v>-0.01276409597835192</v>
+        <v>-0.02496194277368741</v>
       </c>
       <c r="D51">
-        <v>0.05109293054197894</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01637818495224607</v>
+      </c>
+      <c r="E51">
+        <v>0.06014947029670138</v>
+      </c>
+      <c r="F51">
+        <v>0.05506301959695511</v>
+      </c>
+      <c r="G51">
+        <v>-0.01733394276262357</v>
+      </c>
+      <c r="H51">
+        <v>-0.003353423190945822</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.07394283278944785</v>
+        <v>0.05689642267406748</v>
       </c>
       <c r="C53">
-        <v>-0.162604609171128</v>
+        <v>-0.1671881053326988</v>
       </c>
       <c r="D53">
-        <v>-0.01009770132653792</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02126398625144641</v>
+      </c>
+      <c r="E53">
+        <v>-0.06000456165805997</v>
+      </c>
+      <c r="F53">
+        <v>-0.008386367882496385</v>
+      </c>
+      <c r="G53">
+        <v>-0.01289096400300177</v>
+      </c>
+      <c r="H53">
+        <v>-0.03344871783396888</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-5.789933660482624e-05</v>
+        <v>0.01025172549031896</v>
       </c>
       <c r="C54">
-        <v>-0.0343332000864142</v>
+        <v>-0.05119884838232001</v>
       </c>
       <c r="D54">
-        <v>0.07356535360439009</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01055447971756544</v>
+      </c>
+      <c r="E54">
+        <v>0.07839325217933775</v>
+      </c>
+      <c r="F54">
+        <v>0.02301054793160597</v>
+      </c>
+      <c r="G54">
+        <v>-0.002726910084547067</v>
+      </c>
+      <c r="H54">
+        <v>-0.009972609498710861</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.05564230681472816</v>
+        <v>0.03683155577771421</v>
       </c>
       <c r="C55">
-        <v>-0.1270884394413897</v>
+        <v>-0.124266403369415</v>
       </c>
       <c r="D55">
-        <v>-0.004261485418411249</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04294405080354605</v>
+      </c>
+      <c r="E55">
+        <v>-0.04634129888642211</v>
+      </c>
+      <c r="F55">
+        <v>-0.03406210768795551</v>
+      </c>
+      <c r="G55">
+        <v>-0.0251538498539576</v>
+      </c>
+      <c r="H55">
+        <v>-0.03908686200876239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.08770095425299534</v>
+        <v>0.0569720432374821</v>
       </c>
       <c r="C56">
-        <v>-0.1892043118683644</v>
+        <v>-0.1921669054921959</v>
       </c>
       <c r="D56">
-        <v>0.01842852679673225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03074132850255743</v>
+      </c>
+      <c r="E56">
+        <v>-0.07227272953448835</v>
+      </c>
+      <c r="F56">
+        <v>-0.04987756525454238</v>
+      </c>
+      <c r="G56">
+        <v>-0.05483427217749989</v>
+      </c>
+      <c r="H56">
+        <v>-0.111222778534768</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.01342964815927778</v>
+        <v>0.009307107528808549</v>
       </c>
       <c r="C58">
-        <v>-0.05349344947207939</v>
+        <v>-0.1031173262971697</v>
       </c>
       <c r="D58">
-        <v>0.1644334151644319</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.08174134884764261</v>
+      </c>
+      <c r="E58">
+        <v>0.1978708217487205</v>
+      </c>
+      <c r="F58">
+        <v>0.2500817306360006</v>
+      </c>
+      <c r="G58">
+        <v>0.04297277977373031</v>
+      </c>
+      <c r="H58">
+        <v>-0.1498482708882377</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.2295864041371705</v>
+        <v>0.2637537645937859</v>
       </c>
       <c r="C59">
-        <v>0.0692343142555293</v>
+        <v>0.04682031170891263</v>
       </c>
       <c r="D59">
-        <v>0.04569119960456122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03429040316138477</v>
+      </c>
+      <c r="E59">
+        <v>0.01897138561305286</v>
+      </c>
+      <c r="F59">
+        <v>0.04065886375323973</v>
+      </c>
+      <c r="G59">
+        <v>-0.03547354653842594</v>
+      </c>
+      <c r="H59">
+        <v>-0.007481407745075309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1435741100812148</v>
+        <v>0.1502658504688061</v>
       </c>
       <c r="C60">
-        <v>-0.1311816273551798</v>
+        <v>-0.158321247436135</v>
       </c>
       <c r="D60">
-        <v>0.1082170505247365</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01873488514783484</v>
+      </c>
+      <c r="E60">
+        <v>0.1189254751721672</v>
+      </c>
+      <c r="F60">
+        <v>-0.1955954599538618</v>
+      </c>
+      <c r="G60">
+        <v>-0.007977551393360665</v>
+      </c>
+      <c r="H60">
+        <v>0.2505769653017664</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01123856965369072</v>
+        <v>0.01361063085344448</v>
       </c>
       <c r="C61">
-        <v>-0.06281819939852924</v>
+        <v>-0.08598961495977071</v>
       </c>
       <c r="D61">
-        <v>0.06688741552349257</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.008634172010184181</v>
+      </c>
+      <c r="E61">
+        <v>0.07885081792801392</v>
+      </c>
+      <c r="F61">
+        <v>0.002261563076889108</v>
+      </c>
+      <c r="G61">
+        <v>-0.009527947135888261</v>
+      </c>
+      <c r="H61">
+        <v>0.01534822398434725</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0001352415908851849</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.0004533920197425371</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.001866841840184962</v>
+      </c>
+      <c r="E62">
+        <v>-2.028932211255395e-05</v>
+      </c>
+      <c r="F62">
+        <v>0.002716458907144741</v>
+      </c>
+      <c r="G62">
+        <v>-0.0007094445543566778</v>
+      </c>
+      <c r="H62">
+        <v>-0.001390724866458098</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.001034781225590836</v>
+        <v>0.01471286055459472</v>
       </c>
       <c r="C63">
-        <v>-0.04054324859288706</v>
+        <v>-0.05825759942332253</v>
       </c>
       <c r="D63">
-        <v>0.05964663790363162</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02729821232233451</v>
+      </c>
+      <c r="E63">
+        <v>0.08318986970261828</v>
+      </c>
+      <c r="F63">
+        <v>0.02392765447923134</v>
+      </c>
+      <c r="G63">
+        <v>-0.004271885092625103</v>
+      </c>
+      <c r="H63">
+        <v>0.0174008138546096</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.02652163240682268</v>
+        <v>0.01454394826270732</v>
       </c>
       <c r="C64">
-        <v>-0.1073677663627993</v>
+        <v>-0.1051446237436389</v>
       </c>
       <c r="D64">
-        <v>0.009850285323884794</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02215491176754527</v>
+      </c>
+      <c r="E64">
+        <v>0.01787160351834128</v>
+      </c>
+      <c r="F64">
+        <v>0.01779294997228124</v>
+      </c>
+      <c r="G64">
+        <v>0.03233213676166947</v>
+      </c>
+      <c r="H64">
+        <v>0.02712137734877294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02200894431569906</v>
+        <v>0.02701455374726721</v>
       </c>
       <c r="C65">
-        <v>-0.02797471341839394</v>
+        <v>-0.05524242781495278</v>
       </c>
       <c r="D65">
-        <v>0.07669225354752314</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.02312539929533693</v>
+      </c>
+      <c r="E65">
+        <v>0.1172544566936253</v>
+      </c>
+      <c r="F65">
+        <v>0.01410164689124935</v>
+      </c>
+      <c r="G65">
+        <v>0.0510033120454346</v>
+      </c>
+      <c r="H65">
+        <v>0.06740696941345296</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.01426319808830895</v>
+        <v>0.009390705326010371</v>
       </c>
       <c r="C66">
-        <v>-0.09116874880424813</v>
+        <v>-0.1250796430711418</v>
       </c>
       <c r="D66">
-        <v>0.1235475838813446</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.009049101959583835</v>
+      </c>
+      <c r="E66">
+        <v>0.1287376358328418</v>
+      </c>
+      <c r="F66">
+        <v>0.02019512901284609</v>
+      </c>
+      <c r="G66">
+        <v>-0.009720455459523008</v>
+      </c>
+      <c r="H66">
+        <v>0.003742473487225239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01329661299085963</v>
+        <v>0.01548779563720679</v>
       </c>
       <c r="C67">
-        <v>-0.02509600242068234</v>
+        <v>-0.04206780048156988</v>
       </c>
       <c r="D67">
-        <v>0.03810405959226278</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.00176769928879925</v>
+      </c>
+      <c r="E67">
+        <v>0.05112711324091068</v>
+      </c>
+      <c r="F67">
+        <v>-0.02331078571391567</v>
+      </c>
+      <c r="G67">
+        <v>0.01245214757862489</v>
+      </c>
+      <c r="H67">
+        <v>-0.03089828487806152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2422706369758666</v>
+        <v>0.2812385671307099</v>
       </c>
       <c r="C68">
-        <v>0.09421970341877746</v>
+        <v>0.06507311993884536</v>
       </c>
       <c r="D68">
-        <v>0.01043550100268252</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02443297739511694</v>
+      </c>
+      <c r="E68">
+        <v>0.0326288303086179</v>
+      </c>
+      <c r="F68">
+        <v>0.05964981433793121</v>
+      </c>
+      <c r="G68">
+        <v>0.002902829478732895</v>
+      </c>
+      <c r="H68">
+        <v>-0.03764597755084137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0266868333712677</v>
+        <v>0.01127073277878459</v>
       </c>
       <c r="C69">
-        <v>-0.1276330987083047</v>
+        <v>-0.1094843960610256</v>
       </c>
       <c r="D69">
-        <v>0.05078428165650084</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.0089734434616782</v>
+      </c>
+      <c r="E69">
+        <v>0.008456884674603087</v>
+      </c>
+      <c r="F69">
+        <v>-0.01689749623649741</v>
+      </c>
+      <c r="G69">
+        <v>-0.006660717317539477</v>
+      </c>
+      <c r="H69">
+        <v>-0.01608381465280622</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.2635051135478976</v>
+        <v>0.2723365350838804</v>
       </c>
       <c r="C71">
-        <v>0.1075391870397552</v>
+        <v>0.07953839048985463</v>
       </c>
       <c r="D71">
-        <v>0.008453208767445545</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01229094553619948</v>
+      </c>
+      <c r="E71">
+        <v>0.006079561251905645</v>
+      </c>
+      <c r="F71">
+        <v>0.02596285281553862</v>
+      </c>
+      <c r="G71">
+        <v>0.004805296331913738</v>
+      </c>
+      <c r="H71">
+        <v>-0.05802844006239138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.07745250269753505</v>
+        <v>0.06269668228049112</v>
       </c>
       <c r="C72">
-        <v>-0.1098565546902714</v>
+        <v>-0.1311757429762316</v>
       </c>
       <c r="D72">
-        <v>0.0884613486653812</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01935137026251298</v>
+      </c>
+      <c r="E72">
+        <v>0.07410478355861368</v>
+      </c>
+      <c r="F72">
+        <v>-0.03057202940750875</v>
+      </c>
+      <c r="G72">
+        <v>0.01951785781599216</v>
+      </c>
+      <c r="H72">
+        <v>0.05282788293517854</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1471788674245551</v>
+        <v>0.1553487301548711</v>
       </c>
       <c r="C73">
-        <v>-0.1161219604186526</v>
+        <v>-0.173574112347595</v>
       </c>
       <c r="D73">
-        <v>0.171560817456529</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.07994576359616098</v>
+      </c>
+      <c r="E73">
+        <v>0.2396024352422159</v>
+      </c>
+      <c r="F73">
+        <v>-0.3328518771701948</v>
+      </c>
+      <c r="G73">
+        <v>0.0480070194294813</v>
+      </c>
+      <c r="H73">
+        <v>0.3617062345771102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.06641741544664882</v>
+        <v>0.04636100642367903</v>
       </c>
       <c r="C74">
-        <v>-0.1420923713939454</v>
+        <v>-0.1388178964277599</v>
       </c>
       <c r="D74">
-        <v>-0.05698172980848833</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03447978378326045</v>
+      </c>
+      <c r="E74">
+        <v>-0.07814619119196675</v>
+      </c>
+      <c r="F74">
+        <v>-0.008889763618856827</v>
+      </c>
+      <c r="G74">
+        <v>-0.00438764514134629</v>
+      </c>
+      <c r="H74">
+        <v>-0.03211164020765503</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1582176486695643</v>
+        <v>0.09215942227166764</v>
       </c>
       <c r="C75">
-        <v>-0.2490507999023338</v>
+        <v>-0.2470118032169374</v>
       </c>
       <c r="D75">
-        <v>-0.02431994352419942</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02465515330720907</v>
+      </c>
+      <c r="E75">
+        <v>-0.1715554179199053</v>
+      </c>
+      <c r="F75">
+        <v>-0.1398994150570347</v>
+      </c>
+      <c r="G75">
+        <v>-0.02153397410874204</v>
+      </c>
+      <c r="H75">
+        <v>-0.2262271968506633</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.08738799218966355</v>
+        <v>0.05468152390952268</v>
       </c>
       <c r="C76">
-        <v>-0.1765744581715703</v>
+        <v>-0.1782085588518037</v>
       </c>
       <c r="D76">
-        <v>0.008629990500991584</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.03182515261140571</v>
+      </c>
+      <c r="E76">
+        <v>-0.06927251122864289</v>
+      </c>
+      <c r="F76">
+        <v>-0.07237207197997959</v>
+      </c>
+      <c r="G76">
+        <v>-0.04440264007359489</v>
+      </c>
+      <c r="H76">
+        <v>-0.07066992250447694</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002651872242469807</v>
+        <v>0.004847357947397292</v>
       </c>
       <c r="C77">
-        <v>-0.1171443029679953</v>
+        <v>-0.1568378700125088</v>
       </c>
       <c r="D77">
-        <v>0.2312851050810019</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.9333628052728113</v>
+      </c>
+      <c r="E77">
+        <v>-0.168586764447902</v>
+      </c>
+      <c r="F77">
+        <v>-0.07798325695361995</v>
+      </c>
+      <c r="G77">
+        <v>0.1072618854187108</v>
+      </c>
+      <c r="H77">
+        <v>0.1272209947637761</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.02067338457292504</v>
+        <v>0.02258882858629411</v>
       </c>
       <c r="C78">
-        <v>-0.08992149605136002</v>
+        <v>-0.1007112476883603</v>
       </c>
       <c r="D78">
-        <v>0.1058946063907558</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.02027311844658783</v>
+      </c>
+      <c r="E78">
+        <v>0.08343524538511567</v>
+      </c>
+      <c r="F78">
+        <v>0.07599458506977681</v>
+      </c>
+      <c r="G78">
+        <v>-0.06278367157301366</v>
+      </c>
+      <c r="H78">
+        <v>-0.06441765679264601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.07376871053921503</v>
+        <v>0.05236454598440105</v>
       </c>
       <c r="C79">
-        <v>-0.3085562722281397</v>
+        <v>-0.2531109326980926</v>
       </c>
       <c r="D79">
-        <v>-0.7081994538965178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.1680062128592399</v>
+      </c>
+      <c r="E79">
+        <v>-0.4284558290691774</v>
+      </c>
+      <c r="F79">
+        <v>0.5663724075421207</v>
+      </c>
+      <c r="G79">
+        <v>0.3374764515296256</v>
+      </c>
+      <c r="H79">
+        <v>0.4612191399743364</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.001298432956207412</v>
+        <v>0.008872207083744563</v>
       </c>
       <c r="C80">
-        <v>-0.05082565149521207</v>
+        <v>-0.0514469183149921</v>
       </c>
       <c r="D80">
-        <v>0.03000921837052302</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03512657232114126</v>
+      </c>
+      <c r="E80">
+        <v>0.05582482340371522</v>
+      </c>
+      <c r="F80">
+        <v>-0.01520500792536817</v>
+      </c>
+      <c r="G80">
+        <v>-0.06028956485988968</v>
+      </c>
+      <c r="H80">
+        <v>0.03990590263486909</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.06095967328091069</v>
+        <v>0.02753548781885033</v>
       </c>
       <c r="C81">
-        <v>-0.1642737940155517</v>
+        <v>-0.156526916262603</v>
       </c>
       <c r="D81">
-        <v>-0.063285657449811</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03156608280165712</v>
+      </c>
+      <c r="E81">
+        <v>-0.1091437032042677</v>
+      </c>
+      <c r="F81">
+        <v>0.001815130053180628</v>
+      </c>
+      <c r="G81">
+        <v>-0.04690514302582627</v>
+      </c>
+      <c r="H81">
+        <v>-0.08407364276552197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1186329628839796</v>
+        <v>0.06753839627293122</v>
       </c>
       <c r="C82">
-        <v>-0.2684251790148062</v>
+        <v>-0.231826881348054</v>
       </c>
       <c r="D82">
-        <v>-0.02328295324284763</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.0415320025586693</v>
+      </c>
+      <c r="E82">
+        <v>-0.1578021478788229</v>
+      </c>
+      <c r="F82">
+        <v>-0.09177093635581496</v>
+      </c>
+      <c r="G82">
+        <v>-0.1040270331409696</v>
+      </c>
+      <c r="H82">
+        <v>-0.1437794278182091</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01945853695349039</v>
+        <v>-0.007217614671002218</v>
       </c>
       <c r="C83">
-        <v>-0.05233418660387651</v>
+        <v>-0.01764363023474423</v>
       </c>
       <c r="D83">
-        <v>0.005370665401718005</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.08212349576547355</v>
+      </c>
+      <c r="E83">
+        <v>-0.08976515499198198</v>
+      </c>
+      <c r="F83">
+        <v>0.2408538740722277</v>
+      </c>
+      <c r="G83">
+        <v>-0.8662593255009898</v>
+      </c>
+      <c r="H83">
+        <v>0.2416956550185217</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002248172548523436</v>
+        <v>-0.002940793719025988</v>
       </c>
       <c r="C84">
-        <v>-0.007754399741298004</v>
+        <v>-0.02470553421010191</v>
       </c>
       <c r="D84">
-        <v>0.01609615101282254</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01361849938787866</v>
+      </c>
+      <c r="E84">
+        <v>0.04692358904430238</v>
+      </c>
+      <c r="F84">
+        <v>0.05979176517638722</v>
+      </c>
+      <c r="G84">
+        <v>0.03160680976510107</v>
+      </c>
+      <c r="H84">
+        <v>-0.055095836339942</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.08436334416441653</v>
+        <v>0.05033033518857348</v>
       </c>
       <c r="C85">
-        <v>-0.1788318966289954</v>
+        <v>-0.1719465787432783</v>
       </c>
       <c r="D85">
-        <v>-0.09161463434388031</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08934757344521908</v>
+      </c>
+      <c r="E85">
+        <v>-0.1197742408797511</v>
+      </c>
+      <c r="F85">
+        <v>-0.005942443005962768</v>
+      </c>
+      <c r="G85">
+        <v>-0.008354092313510728</v>
+      </c>
+      <c r="H85">
+        <v>-0.05821959741958436</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02730128990557845</v>
+        <v>0.01652326875671638</v>
       </c>
       <c r="C86">
-        <v>-0.02139956182601445</v>
+        <v>-0.05113108415619742</v>
       </c>
       <c r="D86">
-        <v>0.06909452131209463</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0419967379403416</v>
+      </c>
+      <c r="E86">
+        <v>0.05240039552489224</v>
+      </c>
+      <c r="F86">
+        <v>0.08151360891817735</v>
+      </c>
+      <c r="G86">
+        <v>0.02943112268844881</v>
+      </c>
+      <c r="H86">
+        <v>-0.05967173209525473</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.01926578373312295</v>
+        <v>0.01256553822009727</v>
       </c>
       <c r="C87">
-        <v>-0.06111701115412859</v>
+        <v>-0.08182870291648453</v>
       </c>
       <c r="D87">
-        <v>0.1131376660115224</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.03500394134844557</v>
+      </c>
+      <c r="E87">
+        <v>0.1106346571218906</v>
+      </c>
+      <c r="F87">
+        <v>0.09095710337395345</v>
+      </c>
+      <c r="G87">
+        <v>-0.003912674567609485</v>
+      </c>
+      <c r="H87">
+        <v>-0.04983190311491408</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.03386359564055502</v>
+        <v>0.03403911873369593</v>
       </c>
       <c r="C88">
-        <v>-0.07453463214384649</v>
+        <v>-0.08151035849574816</v>
       </c>
       <c r="D88">
-        <v>0.001580465558502931</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01742575026376404</v>
+      </c>
+      <c r="E88">
+        <v>0.0151148854764372</v>
+      </c>
+      <c r="F88">
+        <v>-0.006287061899724312</v>
+      </c>
+      <c r="G88">
+        <v>0.0009313554639545537</v>
+      </c>
+      <c r="H88">
+        <v>-0.004394223021494043</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.402513721349447</v>
+        <v>0.4009278743788492</v>
       </c>
       <c r="C89">
-        <v>0.1992194250597749</v>
+        <v>0.1509863211027253</v>
       </c>
       <c r="D89">
-        <v>-0.002448422940355748</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.04251966706479889</v>
+      </c>
+      <c r="E89">
+        <v>0.01660184103641916</v>
+      </c>
+      <c r="F89">
+        <v>0.1188991975690892</v>
+      </c>
+      <c r="G89">
+        <v>-0.09066851708866755</v>
+      </c>
+      <c r="H89">
+        <v>0.03676598731961984</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.3182273740074888</v>
+        <v>0.3239180052256472</v>
       </c>
       <c r="C90">
-        <v>0.1407070506714562</v>
+        <v>0.09445613623321381</v>
       </c>
       <c r="D90">
-        <v>0.0573932092842785</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02363274412578928</v>
+      </c>
+      <c r="E90">
+        <v>0.03527999903319179</v>
+      </c>
+      <c r="F90">
+        <v>0.004876823927965474</v>
+      </c>
+      <c r="G90">
+        <v>-0.01547254306767348</v>
+      </c>
+      <c r="H90">
+        <v>-0.04903094840228637</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.09562902226524775</v>
+        <v>0.0627137349408958</v>
       </c>
       <c r="C91">
-        <v>-0.2248748750720799</v>
+        <v>-0.1932630318412733</v>
       </c>
       <c r="D91">
-        <v>-0.08951565468939184</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02971564006916064</v>
+      </c>
+      <c r="E91">
+        <v>-0.1567789262973509</v>
+      </c>
+      <c r="F91">
+        <v>0.0004695010611197429</v>
+      </c>
+      <c r="G91">
+        <v>-0.0314662132957134</v>
+      </c>
+      <c r="H91">
+        <v>-0.04138179814148393</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.3180029373000737</v>
+        <v>0.3413124704070482</v>
       </c>
       <c r="C92">
-        <v>0.1485785621404001</v>
+        <v>0.1185153803931764</v>
       </c>
       <c r="D92">
-        <v>-0.01945123068780279</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.04803353666408155</v>
+      </c>
+      <c r="E92">
+        <v>-0.01881458577478601</v>
+      </c>
+      <c r="F92">
+        <v>0.05742308242954474</v>
+      </c>
+      <c r="G92">
+        <v>0.07007079244256136</v>
+      </c>
+      <c r="H92">
+        <v>-0.06509667373212781</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.3380918311306202</v>
+        <v>0.331351379779652</v>
       </c>
       <c r="C93">
-        <v>0.1507820281634835</v>
+        <v>0.1142865079063687</v>
       </c>
       <c r="D93">
-        <v>-0.03127148037345841</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.020880027275537</v>
+      </c>
+      <c r="E93">
+        <v>-0.02068906231520735</v>
+      </c>
+      <c r="F93">
+        <v>0.001809254955102825</v>
+      </c>
+      <c r="G93">
+        <v>0.04835644181256449</v>
+      </c>
+      <c r="H93">
+        <v>-0.01063553161725614</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1636692154229246</v>
+        <v>0.1117555406497176</v>
       </c>
       <c r="C94">
-        <v>-0.2910122642328665</v>
+        <v>-0.2727232587273152</v>
       </c>
       <c r="D94">
-        <v>-0.06535490270897951</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.09056124685759467</v>
+      </c>
+      <c r="E94">
+        <v>-0.2644424897603768</v>
+      </c>
+      <c r="F94">
+        <v>-0.1826623138010577</v>
+      </c>
+      <c r="G94">
+        <v>-0.1068686699952598</v>
+      </c>
+      <c r="H94">
+        <v>-0.2928935139185088</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.001090154366834074</v>
+        <v>0.01640386454230686</v>
       </c>
       <c r="C95">
-        <v>-0.08107453797871104</v>
+        <v>-0.1083305603940778</v>
       </c>
       <c r="D95">
-        <v>0.1157445107855854</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1147414644959396</v>
+      </c>
+      <c r="E95">
+        <v>0.05660859771616535</v>
+      </c>
+      <c r="F95">
+        <v>-0.0784669693125466</v>
+      </c>
+      <c r="G95">
+        <v>-0.01869206722120741</v>
+      </c>
+      <c r="H95">
+        <v>0.04446730479498492</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002284042621402963</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.00164279294122511</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.003609122316847914</v>
+      </c>
+      <c r="E97">
+        <v>0.004194689810681299</v>
+      </c>
+      <c r="F97">
+        <v>-0.001328245116853014</v>
+      </c>
+      <c r="G97">
+        <v>0.004928230693837263</v>
+      </c>
+      <c r="H97">
+        <v>-0.004141487294067474</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1192662024208194</v>
+        <v>0.1323404418389911</v>
       </c>
       <c r="C98">
-        <v>-0.1086571810735798</v>
+        <v>-0.1521392186025059</v>
       </c>
       <c r="D98">
-        <v>0.1284993407873294</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.06452420281908146</v>
+      </c>
+      <c r="E98">
+        <v>0.1685261049939794</v>
+      </c>
+      <c r="F98">
+        <v>-0.2665404283948253</v>
+      </c>
+      <c r="G98">
+        <v>0.04893843515454473</v>
+      </c>
+      <c r="H98">
+        <v>0.3001260557006979</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.001015468575829349</v>
+        <v>0.003262455436864904</v>
       </c>
       <c r="C101">
-        <v>-0.02711120178625098</v>
+        <v>-0.05152044121967852</v>
       </c>
       <c r="D101">
-        <v>0.05942158226088286</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0123739966581266</v>
+      </c>
+      <c r="E101">
+        <v>0.1177483460840526</v>
+      </c>
+      <c r="F101">
+        <v>0.05338805398405911</v>
+      </c>
+      <c r="G101">
+        <v>-0.03851415928312543</v>
+      </c>
+      <c r="H101">
+        <v>0.06264710029747249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.04734542606172334</v>
+        <v>0.01630667078584318</v>
       </c>
       <c r="C102">
-        <v>-0.154004368799848</v>
+        <v>-0.1099922610999608</v>
       </c>
       <c r="D102">
-        <v>0.01853216545416133</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.01504066890841543</v>
+      </c>
+      <c r="E102">
+        <v>-0.07573735055380483</v>
+      </c>
+      <c r="F102">
+        <v>-0.07471771242845082</v>
+      </c>
+      <c r="G102">
+        <v>-0.04819380835130535</v>
+      </c>
+      <c r="H102">
+        <v>-0.04556974080593524</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
